--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Basic_30_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Basic_30_Avg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>Bears (analysis done Today 04:34 most recent)</t>
   </si>
@@ -593,18 +593,9 @@
     <t>Kali-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Buggy</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_2_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Buggy</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Buggy</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_4_Buggy</t>
   </si>
   <si>
@@ -614,9 +605,6 @@
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_1_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Buggy</t>
-  </si>
-  <si>
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Buggy</t>
   </si>
   <si>
@@ -635,9 +623,6 @@
     <t>Arja-Bears-SzFMV2018-Tavasz-AutomatedCar -351742666-351759763_0_Buggy</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Buggy</t>
-  </si>
-  <si>
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Buggy</t>
   </si>
   <si>
@@ -692,9 +677,6 @@
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Auto</t>
   </si>
   <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Auto</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Auto</t>
   </si>
   <si>
@@ -725,18 +707,6 @@
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Auto</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Auto</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Auto</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Auto</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Auto</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Auto</t>
   </si>
   <si>
@@ -782,9 +752,6 @@
     <t>Arja-Bears-albfernandez-GDS-PMD-Security -Rules-451155169-455669767_2_Manual</t>
   </si>
   <si>
-    <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_0_Manual</t>
-  </si>
-  <si>
     <t>Arja-Bears-opentracing-contrib-java-p6sp y-390188323-431527545_1_Manual</t>
   </si>
   <si>
@@ -815,18 +782,6 @@
     <t>Arja-Bears-traccar-traccar-255051210-255 052458_0_Manual</t>
   </si>
   <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_1_Manual</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_2_Manual</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_3_Manual</t>
-  </si>
-  <si>
-    <t>Arja-Bears-traccar-traccar-255051210-255 052458_4_Manual</t>
-  </si>
-  <si>
     <t>GenProg-Bears-SzFMV2018-Tavasz-Automated Car-351742666-351759763_0_Manual</t>
   </si>
   <si>
@@ -869,7 +824,7 @@
     <t>RSRepair-Bears-SzFMV2018-Tavasz-Automate dCar-351742666-351759763_4_Manual</t>
   </si>
   <si>
-    <t>90 projects</t>
+    <t>75 projects</t>
   </si>
 </sst>
 </file>
@@ -1835,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1943,7 +1898,7 @@
     </row>
     <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -1970,7 +1925,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -1984,7 +1939,7 @@
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8">
         <v>8.85</v>
@@ -2026,7 +1981,7 @@
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8">
         <v>8.9600000000000009</v>
@@ -2068,7 +2023,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8">
         <v>8.83</v>
@@ -2110,7 +2065,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8">
         <v>4.62</v>
@@ -2137,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="13" t="str">
-        <f t="shared" ref="J22:J52" si="1">IF(NOT(ISERR(SEARCH("*_Buggy",$A22))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A22))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A22))), "Auto", "")))</f>
+        <f t="shared" ref="J22:J49" si="1">IF(NOT(ISERR(SEARCH("*_Buggy",$A22))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A22))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A22))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B23" s="8">
         <v>4.57</v>
@@ -2176,7 +2131,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6">
         <v>4.54</v>
@@ -2209,7 +2164,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8">
         <v>4.62</v>
@@ -2242,7 +2197,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B26" s="8">
         <v>4.57</v>
@@ -2274,31 +2229,31 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="6">
-        <v>4.54</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="A27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="8">
         <v>13</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>1.69</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="8">
         <v>1.08</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <v>0</v>
       </c>
       <c r="J27" s="13" t="str">
@@ -2308,7 +2263,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B28" s="8">
         <v>4.62</v>
@@ -2340,31 +2295,31 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="6">
         <v>4.57</v>
       </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
         <v>10</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <v>14</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>1.64</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>1</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
         <v>0</v>
       </c>
       <c r="J29" s="13" t="str">
@@ -2374,10 +2329,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B30" s="8">
-        <v>4.3099999999999996</v>
+        <v>4.38</v>
       </c>
       <c r="C30" s="8">
         <v>0</v>
@@ -2440,7 +2395,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B32" s="6">
         <v>4.57</v>
@@ -2461,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2473,7 +2428,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B33" s="8">
         <v>4.38</v>
@@ -2505,31 +2460,31 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>10</v>
-      </c>
-      <c r="E34" s="8">
-        <v>13</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1.69</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D34" s="6">
+        <v>22</v>
+      </c>
+      <c r="E34" s="6">
+        <v>7</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>0</v>
       </c>
       <c r="J34" s="13" t="str">
@@ -2539,31 +2494,31 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6">
-        <v>4.57</v>
+        <v>5.71</v>
       </c>
       <c r="C35" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D35" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E35" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6">
-        <v>1.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G35" s="6">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="H35" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I35" s="6">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="J35" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2571,31 +2526,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8">
-        <v>4.38</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>10</v>
-      </c>
-      <c r="E36" s="8">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1.69</v>
-      </c>
-      <c r="G36" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="A36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="6">
+        <v>5.86</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D36" s="6">
+        <v>22</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>0</v>
       </c>
       <c r="J36" s="13" t="str">
@@ -2604,31 +2559,31 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8">
         <v>5.71</v>
       </c>
-      <c r="C37" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D37" s="6">
-        <v>22</v>
-      </c>
-      <c r="E37" s="6">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="C37" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D37" s="8">
+        <v>22</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G37" s="8">
         <v>1.43</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <v>0</v>
       </c>
       <c r="J37" s="13" t="str">
@@ -2638,7 +2593,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B38" s="6">
         <v>5.71</v>
@@ -2671,10 +2626,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B39" s="6">
-        <v>5.86</v>
+        <v>5.71</v>
       </c>
       <c r="C39" s="6">
         <v>3.57</v>
@@ -2703,31 +2658,31 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="6">
         <v>5.71</v>
       </c>
-      <c r="C40" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D40" s="8">
-        <v>22</v>
-      </c>
-      <c r="E40" s="8">
-        <v>7</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="C40" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D40" s="6">
+        <v>22</v>
+      </c>
+      <c r="E40" s="6">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G40" s="6">
         <v>1.43</v>
       </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8">
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>0</v>
       </c>
       <c r="J40" s="13" t="str">
@@ -2737,7 +2692,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B41" s="6">
         <v>5.71</v>
@@ -2770,10 +2725,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6">
-        <v>5.71</v>
+        <v>5.86</v>
       </c>
       <c r="C42" s="6">
         <v>3.57</v>
@@ -2791,10 +2746,10 @@
         <v>1.43</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="I42" s="6">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J42" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2802,31 +2757,31 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="A43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="8">
         <v>5.71</v>
       </c>
-      <c r="C43" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D43" s="6">
-        <v>22</v>
-      </c>
-      <c r="E43" s="6">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="C43" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D43" s="8">
+        <v>22</v>
+      </c>
+      <c r="E43" s="8">
+        <v>7</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G43" s="8">
         <v>1.43</v>
       </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
         <v>0</v>
       </c>
       <c r="J43" s="13" t="str">
@@ -2835,31 +2790,31 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="8">
         <v>5.71</v>
       </c>
-      <c r="C44" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D44" s="6">
-        <v>22</v>
-      </c>
-      <c r="E44" s="6">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="C44" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D44" s="8">
+        <v>22</v>
+      </c>
+      <c r="E44" s="8">
+        <v>7</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G44" s="8">
         <v>1.43</v>
       </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="13" t="str">
@@ -2869,7 +2824,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B45" s="6">
         <v>5.86</v>
@@ -2890,10 +2845,10 @@
         <v>1.43</v>
       </c>
       <c r="H45" s="6">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="J45" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2901,31 +2856,31 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6">
         <v>5.71</v>
       </c>
-      <c r="C46" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D46" s="8">
-        <v>22</v>
-      </c>
-      <c r="E46" s="8">
-        <v>7</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="C46" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D46" s="6">
+        <v>22</v>
+      </c>
+      <c r="E46" s="6">
+        <v>7</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G46" s="6">
         <v>1.43</v>
       </c>
-      <c r="H46" s="8">
-        <v>0</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>0</v>
       </c>
       <c r="J46" s="13" t="str">
@@ -2934,31 +2889,31 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="6">
         <v>5.71</v>
       </c>
-      <c r="C47" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D47" s="8">
-        <v>22</v>
-      </c>
-      <c r="E47" s="8">
-        <v>7</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="C47" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D47" s="6">
+        <v>22</v>
+      </c>
+      <c r="E47" s="6">
+        <v>7</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G47" s="6">
         <v>1.43</v>
       </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="13" t="str">
@@ -2967,31 +2922,31 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="A48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="8">
         <v>5.86</v>
       </c>
-      <c r="C48" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D48" s="6">
-        <v>22</v>
-      </c>
-      <c r="E48" s="6">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="C48" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D48" s="8">
+        <v>22</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G48" s="8">
         <v>1.43</v>
       </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
         <v>0</v>
       </c>
       <c r="J48" s="13" t="str">
@@ -3000,31 +2955,31 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C49" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D49" s="6">
-        <v>22</v>
-      </c>
-      <c r="E49" s="6">
-        <v>7</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="A49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="8">
+        <v>13</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
         <v>0</v>
       </c>
       <c r="J49" s="13" t="str">
@@ -3034,58 +2989,58 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B50" s="6">
-        <v>5.71</v>
+        <v>13</v>
       </c>
       <c r="C50" s="6">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E50" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" s="6">
-        <v>0.56999999999999995</v>
+        <v>2</v>
       </c>
       <c r="G50" s="6">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="H50" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J50" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J50:J69" si="2">IF(NOT(ISERR(SEARCH("*_Buggy",$A50))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A50))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A50))), "Auto", "")))</f>
         <v>Manual</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B51" s="8">
-        <v>5.86</v>
+        <v>12.12</v>
       </c>
       <c r="C51" s="8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D51" s="8">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E51" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F51" s="8">
-        <v>0.56999999999999995</v>
+        <v>2</v>
       </c>
       <c r="G51" s="8">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="H51" s="8">
         <v>0</v>
@@ -3094,31 +3049,31 @@
         <v>0</v>
       </c>
       <c r="J51" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B52" s="8">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C52" s="8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D52" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E52" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="8">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G52" s="8">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H52" s="8">
         <v>0</v>
@@ -3127,64 +3082,64 @@
         <v>0</v>
       </c>
       <c r="J52" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Buggy</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="6">
-        <v>13</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3</v>
-      </c>
-      <c r="E53" s="6">
-        <v>8</v>
-      </c>
-      <c r="F53" s="6">
-        <v>2</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="H53" s="6">
-        <v>2</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.75</v>
+      <c r="A53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D53" s="8">
+        <v>22</v>
+      </c>
+      <c r="E53" s="8">
+        <v>7</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
       </c>
       <c r="J53" s="13" t="str">
-        <f t="shared" ref="J53:J84" si="2">IF(NOT(ISERR(SEARCH("*_Buggy",$A53))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A53))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A53))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B54" s="8">
-        <v>12.12</v>
+        <v>6.29</v>
       </c>
       <c r="C54" s="8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D54" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E54" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="8">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G54" s="8">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H54" s="8">
         <v>0</v>
@@ -3202,22 +3157,22 @@
         <v>35</v>
       </c>
       <c r="B55" s="6">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D55" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E55" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G55" s="6">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
@@ -3232,25 +3187,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B56" s="6">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D56" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E56" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="6">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G56" s="6">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H56" s="6">
         <v>0</v>
@@ -3264,31 +3219,31 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="8">
-        <v>12.12</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8">
-        <v>3</v>
-      </c>
-      <c r="E57" s="8">
-        <v>8</v>
-      </c>
-      <c r="F57" s="8">
-        <v>2</v>
-      </c>
-      <c r="G57" s="8">
-        <v>1.75</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
+      <c r="A57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="6">
+        <v>7.43</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D57" s="6">
+        <v>22</v>
+      </c>
+      <c r="E57" s="6">
+        <v>7</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
         <v>0</v>
       </c>
       <c r="J57" s="13" t="str">
@@ -3298,25 +3253,25 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B58" s="8">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C58" s="8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D58" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E58" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="8">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G58" s="8">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H58" s="8">
         <v>0</v>
@@ -3330,31 +3285,31 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B59" s="6">
-        <v>13</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>3</v>
-      </c>
-      <c r="E59" s="6">
-        <v>8</v>
-      </c>
-      <c r="F59" s="6">
-        <v>2</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="A59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="C59" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D59" s="8">
+        <v>22</v>
+      </c>
+      <c r="E59" s="8">
+        <v>7</v>
+      </c>
+      <c r="F59" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
         <v>0</v>
       </c>
       <c r="J59" s="13" t="str">
@@ -3363,31 +3318,31 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="8">
-        <v>12.12</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8">
-        <v>8</v>
-      </c>
-      <c r="F60" s="8">
-        <v>2</v>
-      </c>
-      <c r="G60" s="8">
-        <v>1.75</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
+      <c r="A60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="6">
+        <v>6</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D60" s="6">
+        <v>22</v>
+      </c>
+      <c r="E60" s="6">
+        <v>7</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
         <v>0</v>
       </c>
       <c r="J60" s="13" t="str">
@@ -3397,25 +3352,25 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B61" s="6">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D61" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E61" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G61" s="6">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
@@ -3429,31 +3384,31 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="8">
-        <v>13</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8">
-        <v>3</v>
-      </c>
-      <c r="E62" s="8">
-        <v>8</v>
-      </c>
-      <c r="F62" s="8">
-        <v>2</v>
-      </c>
-      <c r="G62" s="8">
-        <v>1.88</v>
-      </c>
-      <c r="H62" s="8">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
+      <c r="A62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D62" s="6">
+        <v>22</v>
+      </c>
+      <c r="E62" s="6">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
         <v>0</v>
       </c>
       <c r="J62" s="13" t="str">
@@ -3463,25 +3418,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B63" s="8">
-        <v>12.12</v>
+        <v>5.86</v>
       </c>
       <c r="C63" s="8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D63" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E63" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="8">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G63" s="8">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -3496,25 +3451,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="6">
-        <v>13</v>
+        <v>5.71</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D64" s="6">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E64" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="6">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G64" s="6">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="H64" s="6">
         <v>0</v>
@@ -3528,31 +3483,31 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="8">
-        <v>13</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
-        <v>3</v>
-      </c>
-      <c r="E65" s="8">
-        <v>8</v>
-      </c>
-      <c r="F65" s="8">
-        <v>2</v>
-      </c>
-      <c r="G65" s="8">
-        <v>1.88</v>
-      </c>
-      <c r="H65" s="8">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
+      <c r="A65" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D65" s="6">
+        <v>22</v>
+      </c>
+      <c r="E65" s="6">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
         <v>0</v>
       </c>
       <c r="J65" s="13" t="str">
@@ -3562,25 +3517,25 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B66" s="8">
-        <v>12.12</v>
+        <v>6.43</v>
       </c>
       <c r="C66" s="8">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D66" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E66" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="8">
-        <v>2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G66" s="8">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H66" s="8">
         <v>0</v>
@@ -3595,25 +3550,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B67" s="8">
-        <v>5.71</v>
+        <v>8.85</v>
       </c>
       <c r="C67" s="8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D67" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E67" s="8">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F67" s="8">
-        <v>0.56999999999999995</v>
+        <v>1.29</v>
       </c>
       <c r="G67" s="8">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="H67" s="8">
         <v>0</v>
@@ -3628,31 +3583,31 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B68" s="8">
-        <v>5.71</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C68" s="8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D68" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E68" s="8">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F68" s="8">
-        <v>0.56999999999999995</v>
+        <v>1.28</v>
       </c>
       <c r="G68" s="8">
-        <v>1.43</v>
+        <v>2.21</v>
       </c>
       <c r="H68" s="8">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="I68" s="8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="J68" s="13" t="str">
         <f t="shared" si="2"/>
@@ -3661,25 +3616,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B69" s="8">
-        <v>6.29</v>
+        <v>8.85</v>
       </c>
       <c r="C69" s="8">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D69" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E69" s="8">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F69" s="8">
-        <v>0.56999999999999995</v>
+        <v>1.29</v>
       </c>
       <c r="G69" s="8">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="H69" s="8">
         <v>0</v>
@@ -3694,139 +3649,139 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B70" s="6">
-        <v>5.71</v>
+        <v>4</v>
       </c>
       <c r="C70" s="6">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="D70" s="6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E70" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F70" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.67</v>
       </c>
       <c r="G70" s="6">
-        <v>1.43</v>
+        <v>0.33</v>
       </c>
       <c r="H70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J70" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J70:J93" si="3">IF(NOT(ISERR(SEARCH("*_Buggy",$A70))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A70))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A70))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B71" s="6">
+        <v>5.33</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>3</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Auto</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="6">
         <v>5.71</v>
       </c>
-      <c r="C71" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D71" s="6">
-        <v>22</v>
-      </c>
-      <c r="E71" s="6">
-        <v>7</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="C73" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D73" s="6">
+        <v>22</v>
+      </c>
+      <c r="E73" s="6">
+        <v>7</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G73" s="6">
         <v>1.43</v>
       </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="6">
-        <v>7.43</v>
-      </c>
-      <c r="C72" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D72" s="6">
-        <v>22</v>
-      </c>
-      <c r="E72" s="6">
-        <v>7</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1.86</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C73" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D73" s="8">
-        <v>22</v>
-      </c>
-      <c r="E73" s="8">
-        <v>7</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G73" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H73" s="8">
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
         <v>0</v>
       </c>
       <c r="J73" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Buggy</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B74" s="8">
         <v>5.71</v>
@@ -3853,394 +3808,394 @@
         <v>0</v>
       </c>
       <c r="J74" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Manual</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="6">
+      <c r="A75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="8">
         <v>6</v>
       </c>
-      <c r="C75" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D75" s="6">
-        <v>22</v>
-      </c>
-      <c r="E75" s="6">
-        <v>7</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G75" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
+      <c r="C75" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D75" s="8">
+        <v>22</v>
+      </c>
+      <c r="E75" s="8">
+        <v>7</v>
+      </c>
+      <c r="F75" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
         <v>0</v>
       </c>
       <c r="J75" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Auto</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B76" s="6">
+        <v>13</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Buggy</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="8">
+        <v>13</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8">
+        <v>8</v>
+      </c>
+      <c r="F77" s="8">
+        <v>2</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Manual</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="6">
+        <v>13</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Auto</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="8">
         <v>5.71</v>
       </c>
-      <c r="C76" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D76" s="6">
-        <v>22</v>
-      </c>
-      <c r="E76" s="6">
-        <v>7</v>
-      </c>
-      <c r="F76" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="C79" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D79" s="8">
+        <v>22</v>
+      </c>
+      <c r="E79" s="8">
+        <v>7</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G79" s="8">
         <v>1.43</v>
       </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0</v>
+      </c>
+      <c r="J79" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Buggy</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="6">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="8">
         <v>5.71</v>
       </c>
-      <c r="C77" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D77" s="6">
-        <v>22</v>
-      </c>
-      <c r="E77" s="6">
-        <v>7</v>
-      </c>
-      <c r="F77" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G77" s="6">
+      <c r="C80" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D80" s="8">
+        <v>22</v>
+      </c>
+      <c r="E80" s="8">
+        <v>7</v>
+      </c>
+      <c r="F80" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G80" s="8">
         <v>1.43</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>0</v>
-      </c>
-      <c r="J77" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
+        <v>0</v>
+      </c>
+      <c r="J80" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Manual</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="8">
-        <v>5.86</v>
-      </c>
-      <c r="C78" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D78" s="8">
-        <v>22</v>
-      </c>
-      <c r="E78" s="8">
-        <v>7</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G78" s="8">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="6">
+        <v>5.43</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D81" s="6">
+        <v>22</v>
+      </c>
+      <c r="E81" s="6">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G81" s="6">
         <v>1.57</v>
       </c>
-      <c r="H78" s="8">
-        <v>0</v>
-      </c>
-      <c r="I78" s="8">
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Auto</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="6">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" s="6">
         <v>5.71</v>
       </c>
-      <c r="C79" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D79" s="6">
-        <v>22</v>
-      </c>
-      <c r="E79" s="6">
-        <v>7</v>
-      </c>
-      <c r="F79" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G79" s="6">
+      <c r="C82" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D82" s="6">
+        <v>22</v>
+      </c>
+      <c r="E82" s="6">
+        <v>7</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G82" s="6">
         <v>1.43</v>
       </c>
-      <c r="H79" s="6">
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Buggy</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="6">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="6">
         <v>5.71</v>
       </c>
-      <c r="C80" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D80" s="6">
-        <v>22</v>
-      </c>
-      <c r="E80" s="6">
-        <v>7</v>
-      </c>
-      <c r="F80" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G80" s="6">
+      <c r="C83" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D83" s="6">
+        <v>22</v>
+      </c>
+      <c r="E83" s="6">
+        <v>7</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G83" s="6">
         <v>1.43</v>
       </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <v>0</v>
-      </c>
-      <c r="J80" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Manual</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8">
-        <v>6.43</v>
-      </c>
-      <c r="C81" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D81" s="8">
-        <v>22</v>
-      </c>
-      <c r="E81" s="8">
-        <v>7</v>
-      </c>
-      <c r="F81" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G81" s="8">
-        <v>1.71</v>
-      </c>
-      <c r="H81" s="8">
-        <v>0</v>
-      </c>
-      <c r="I81" s="8">
-        <v>0</v>
-      </c>
-      <c r="J81" s="13" t="str">
-        <f t="shared" si="2"/>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="C84" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D84" s="8">
+        <v>22</v>
+      </c>
+      <c r="E84" s="8">
+        <v>7</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Auto</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="8">
-        <v>8.85</v>
-      </c>
-      <c r="C82" s="8">
-        <v>0</v>
-      </c>
-      <c r="D82" s="8">
-        <v>27</v>
-      </c>
-      <c r="E82" s="8">
-        <v>52</v>
-      </c>
-      <c r="F82" s="8">
-        <v>1.29</v>
-      </c>
-      <c r="G82" s="8">
-        <v>2.13</v>
-      </c>
-      <c r="H82" s="8">
-        <v>0</v>
-      </c>
-      <c r="I82" s="8">
-        <v>0</v>
-      </c>
-      <c r="J82" s="13" t="str">
-        <f t="shared" si="2"/>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="C85" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D85" s="6">
+        <v>22</v>
+      </c>
+      <c r="E85" s="6">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="13" t="str">
+        <f t="shared" si="3"/>
         <v>Buggy</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="8">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="C83" s="8">
-        <v>0</v>
-      </c>
-      <c r="D83" s="8">
-        <v>27</v>
-      </c>
-      <c r="E83" s="8">
-        <v>53</v>
-      </c>
-      <c r="F83" s="8">
-        <v>1.28</v>
-      </c>
-      <c r="G83" s="8">
-        <v>2.21</v>
-      </c>
-      <c r="H83" s="8">
-        <v>3.08</v>
-      </c>
-      <c r="I83" s="8">
-        <v>1.53</v>
-      </c>
-      <c r="J83" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="8">
-        <v>8.85</v>
-      </c>
-      <c r="C84" s="8">
-        <v>0</v>
-      </c>
-      <c r="D84" s="8">
-        <v>27</v>
-      </c>
-      <c r="E84" s="8">
-        <v>52</v>
-      </c>
-      <c r="F84" s="8">
-        <v>1.29</v>
-      </c>
-      <c r="G84" s="8">
-        <v>2.13</v>
-      </c>
-      <c r="H84" s="8">
-        <v>0</v>
-      </c>
-      <c r="I84" s="8">
-        <v>0</v>
-      </c>
-      <c r="J84" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="6">
-        <v>4</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6">
-        <v>3</v>
-      </c>
-      <c r="F85" s="6">
-        <v>0.67</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="H85" s="6">
-        <v>1</v>
-      </c>
-      <c r="I85" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="J85" s="13" t="str">
-        <f t="shared" ref="J85:J108" si="3">IF(NOT(ISERR(SEARCH("*_Buggy",$A85))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A85))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A85))), "Auto", "")))</f>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B86" s="6">
-        <v>5.33</v>
+        <v>5.71</v>
       </c>
       <c r="C86" s="6">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="D86" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E86" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F86" s="6">
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G86" s="6">
-        <v>0.33</v>
+        <v>1.43</v>
       </c>
       <c r="H86" s="6">
         <v>0</v>
@@ -4253,32 +4208,32 @@
         <v>Manual</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="8">
-        <v>4</v>
-      </c>
-      <c r="C87" s="8">
-        <v>0</v>
-      </c>
-      <c r="D87" s="8">
-        <v>1</v>
-      </c>
-      <c r="E87" s="8">
-        <v>3</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0.67</v>
-      </c>
-      <c r="G87" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="H87" s="8">
-        <v>0</v>
-      </c>
-      <c r="I87" s="8">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="6">
+        <v>5.86</v>
+      </c>
+      <c r="C87" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D87" s="6">
+        <v>22</v>
+      </c>
+      <c r="E87" s="6">
+        <v>7</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
         <v>0</v>
       </c>
       <c r="J87" s="13" t="str">
@@ -4286,32 +4241,32 @@
         <v>Auto</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="6">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="8">
         <v>5.71</v>
       </c>
-      <c r="C88" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D88" s="6">
-        <v>22</v>
-      </c>
-      <c r="E88" s="6">
-        <v>7</v>
-      </c>
-      <c r="F88" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="C88" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D88" s="8">
+        <v>22</v>
+      </c>
+      <c r="E88" s="8">
+        <v>7</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G88" s="8">
         <v>1.43</v>
       </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6">
+      <c r="H88" s="8">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
         <v>0</v>
       </c>
       <c r="J88" s="13" t="str">
@@ -4319,9 +4274,9 @@
         <v>Buggy</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B89" s="8">
         <v>5.71</v>
@@ -4352,32 +4307,32 @@
         <v>Manual</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="8">
-        <v>6</v>
-      </c>
-      <c r="C90" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D90" s="8">
-        <v>22</v>
-      </c>
-      <c r="E90" s="8">
-        <v>7</v>
-      </c>
-      <c r="F90" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G90" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H90" s="8">
-        <v>0</v>
-      </c>
-      <c r="I90" s="8">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="6">
+        <v>5.86</v>
+      </c>
+      <c r="C90" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D90" s="6">
+        <v>22</v>
+      </c>
+      <c r="E90" s="6">
+        <v>7</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
         <v>0</v>
       </c>
       <c r="J90" s="13" t="str">
@@ -4385,32 +4340,32 @@
         <v>Auto</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="6">
-        <v>13</v>
-      </c>
-      <c r="C91" s="6">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6">
-        <v>3</v>
-      </c>
-      <c r="E91" s="6">
-        <v>8</v>
-      </c>
-      <c r="F91" s="6">
-        <v>2</v>
-      </c>
-      <c r="G91" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="8">
+        <v>5.71</v>
+      </c>
+      <c r="C91" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D91" s="8">
+        <v>22</v>
+      </c>
+      <c r="E91" s="8">
+        <v>7</v>
+      </c>
+      <c r="F91" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G91" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
         <v>0</v>
       </c>
       <c r="J91" s="13" t="str">
@@ -4418,32 +4373,32 @@
         <v>Buggy</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="8">
-        <v>13</v>
-      </c>
-      <c r="C92" s="8">
-        <v>0</v>
-      </c>
-      <c r="D92" s="8">
-        <v>3</v>
-      </c>
-      <c r="E92" s="8">
-        <v>8</v>
-      </c>
-      <c r="F92" s="8">
-        <v>2</v>
-      </c>
-      <c r="G92" s="8">
-        <v>1.88</v>
-      </c>
-      <c r="H92" s="8">
-        <v>0</v>
-      </c>
-      <c r="I92" s="8">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="C92" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="D92" s="6">
+        <v>22</v>
+      </c>
+      <c r="E92" s="6">
+        <v>7</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G92" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0</v>
+      </c>
+      <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92" s="13" t="str">
@@ -4451,32 +4406,32 @@
         <v>Manual</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="6">
-        <v>13</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>3</v>
-      </c>
-      <c r="E93" s="6">
-        <v>8</v>
-      </c>
-      <c r="F93" s="6">
-        <v>2</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="8">
+        <v>5.57</v>
+      </c>
+      <c r="C93" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="D93" s="8">
+        <v>22</v>
+      </c>
+      <c r="E93" s="8">
+        <v>7</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G93" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8">
         <v>0</v>
       </c>
       <c r="J93" s="13" t="str">
@@ -4484,769 +4439,274 @@
         <v>Auto</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C94" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D94" s="8">
-        <v>22</v>
-      </c>
-      <c r="E94" s="8">
-        <v>7</v>
-      </c>
-      <c r="F94" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G94" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H94" s="8">
-        <v>0</v>
-      </c>
-      <c r="I94" s="8">
-        <v>0</v>
-      </c>
-      <c r="J94" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C95" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D95" s="8">
-        <v>22</v>
-      </c>
-      <c r="E95" s="8">
-        <v>7</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G95" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H95" s="8">
-        <v>0</v>
-      </c>
-      <c r="I95" s="8">
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="6">
-        <v>5.43</v>
-      </c>
-      <c r="C96" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D96" s="6">
-        <v>22</v>
-      </c>
-      <c r="E96" s="6">
-        <v>7</v>
-      </c>
-      <c r="F96" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G96" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C97" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D97" s="6">
-        <v>22</v>
-      </c>
-      <c r="E97" s="6">
-        <v>7</v>
-      </c>
-      <c r="F97" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G97" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C98" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D98" s="6">
-        <v>22</v>
-      </c>
-      <c r="E98" s="6">
-        <v>7</v>
-      </c>
-      <c r="F98" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G98" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C99" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D99" s="8">
-        <v>22</v>
-      </c>
-      <c r="E99" s="8">
-        <v>7</v>
-      </c>
-      <c r="F99" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G99" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H99" s="8">
-        <v>0</v>
-      </c>
-      <c r="I99" s="8">
-        <v>0</v>
-      </c>
-      <c r="J99" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C100" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D100" s="6">
-        <v>22</v>
-      </c>
-      <c r="E100" s="6">
-        <v>7</v>
-      </c>
-      <c r="F100" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G100" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C101" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D101" s="6">
-        <v>22</v>
-      </c>
-      <c r="E101" s="6">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G101" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B102" s="6">
-        <v>5.86</v>
-      </c>
-      <c r="C102" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D102" s="6">
-        <v>22</v>
-      </c>
-      <c r="E102" s="6">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G102" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A103" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C103" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D103" s="8">
-        <v>22</v>
-      </c>
-      <c r="E103" s="8">
-        <v>7</v>
-      </c>
-      <c r="F103" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G103" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H103" s="8">
-        <v>0</v>
-      </c>
-      <c r="I103" s="8">
-        <v>0</v>
-      </c>
-      <c r="J103" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A104" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C104" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D104" s="8">
-        <v>22</v>
-      </c>
-      <c r="E104" s="8">
-        <v>7</v>
-      </c>
-      <c r="F104" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G104" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H104" s="8">
-        <v>0</v>
-      </c>
-      <c r="I104" s="8">
-        <v>0</v>
-      </c>
-      <c r="J104" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" s="6">
-        <v>5.86</v>
-      </c>
-      <c r="C105" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D105" s="6">
-        <v>22</v>
-      </c>
-      <c r="E105" s="6">
-        <v>7</v>
-      </c>
-      <c r="F105" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G105" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="8">
-        <v>5.71</v>
-      </c>
-      <c r="C106" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D106" s="8">
-        <v>22</v>
-      </c>
-      <c r="E106" s="8">
-        <v>7</v>
-      </c>
-      <c r="F106" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G106" s="8">
-        <v>1.43</v>
-      </c>
-      <c r="H106" s="8">
-        <v>0</v>
-      </c>
-      <c r="I106" s="8">
-        <v>0</v>
-      </c>
-      <c r="J106" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Buggy</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" s="6">
-        <v>5.71</v>
-      </c>
-      <c r="C107" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="D107" s="6">
-        <v>22</v>
-      </c>
-      <c r="E107" s="6">
-        <v>7</v>
-      </c>
-      <c r="F107" s="6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G107" s="6">
-        <v>1.43</v>
-      </c>
-      <c r="H107" s="6">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Manual</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="8">
-        <v>5.57</v>
-      </c>
-      <c r="C108" s="8">
-        <v>3.57</v>
-      </c>
-      <c r="D108" s="8">
-        <v>22</v>
-      </c>
-      <c r="E108" s="8">
-        <v>7</v>
-      </c>
-      <c r="F108" s="8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G108" s="8">
-        <v>1.57</v>
-      </c>
-      <c r="H108" s="8">
-        <v>0</v>
-      </c>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>Auto</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" s="12" t="s">
+    <row r="94" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E94" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F109" s="12" t="s">
+      <c r="F94" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="12" t="s">
+      <c r="G94" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="H94" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I109" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A110" s="9" t="s">
+      <c r="I94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="14">
+        <f>SUM(B19:B93)</f>
+        <v>476.42999999999978</v>
+      </c>
+      <c r="C95" s="14">
+        <f>SUM(C19:C93)</f>
+        <v>171.35999999999979</v>
+      </c>
+      <c r="D95" s="14">
+        <f>SUM(D19:D93)</f>
+        <v>1359</v>
+      </c>
+      <c r="E95" s="14">
+        <f>SUM(E19:E93)</f>
+        <v>867</v>
+      </c>
+      <c r="F95" s="14">
+        <f>SUM(F19:F93)</f>
+        <v>69.169999999999959</v>
+      </c>
+      <c r="G95" s="14">
+        <f>SUM(G19:G93)</f>
+        <v>108.19000000000004</v>
+      </c>
+      <c r="H95" s="14">
+        <f>SUM(H19:H93)</f>
+        <v>10.29</v>
+      </c>
+      <c r="I95" s="14">
+        <f>SUM(I19:I93)</f>
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="15">
+        <f>AVERAGE(B19:B93)</f>
+        <v>6.3523999999999967</v>
+      </c>
+      <c r="C96" s="15">
+        <f>AVERAGE(C19:C93)</f>
+        <v>2.2847999999999971</v>
+      </c>
+      <c r="D96" s="15">
+        <f>AVERAGE(D19:D93)</f>
+        <v>18.12</v>
+      </c>
+      <c r="E96" s="15">
+        <f>AVERAGE(E19:E93)</f>
+        <v>11.56</v>
+      </c>
+      <c r="F96" s="15">
+        <f>AVERAGE(F19:F93)</f>
+        <v>0.92226666666666612</v>
+      </c>
+      <c r="G96" s="15">
+        <f>AVERAGE(G19:G93)</f>
+        <v>1.4425333333333339</v>
+      </c>
+      <c r="H96" s="15">
+        <f>AVERAGE(H19:H93)</f>
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="I96" s="15">
+        <f>AVERAGE(I19:I93)</f>
+        <v>5.2933333333333332E-2</v>
+      </c>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="14">
+        <f>MIN(B19:B93)</f>
+        <v>4</v>
+      </c>
+      <c r="C97" s="14">
+        <f>MIN(C19:C93)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="14">
+        <f>MIN(D19:D93)</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="14">
+        <f>MIN(E19:E93)</f>
+        <v>3</v>
+      </c>
+      <c r="F97" s="14">
+        <f>MIN(F19:F93)</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G97" s="14">
+        <f>MIN(G19:G93)</f>
+        <v>0.33</v>
+      </c>
+      <c r="H97" s="14">
+        <f>MIN(H19:H93)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <f>MIN(I19:I93)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="15">
+        <f>MAX(B19:B93)</f>
+        <v>13</v>
+      </c>
+      <c r="C98" s="15">
+        <f>MAX(C19:C93)</f>
+        <v>3.57</v>
+      </c>
+      <c r="D98" s="15">
+        <f>MAX(D19:D93)</f>
+        <v>27</v>
+      </c>
+      <c r="E98" s="15">
+        <f>MAX(E19:E93)</f>
         <v>53</v>
       </c>
-      <c r="B110" s="14">
-        <f>SUM(B19:B108)</f>
-        <v>642.64000000000033</v>
-      </c>
-      <c r="C110" s="14">
-        <f>SUM(C19:C108)</f>
-        <v>171.35999999999979</v>
-      </c>
-      <c r="D110" s="14">
-        <f>SUM(D19:D108)</f>
-        <v>1425</v>
-      </c>
-      <c r="E110" s="14">
-        <f>SUM(E19:E108)</f>
-        <v>1003</v>
-      </c>
-      <c r="F110" s="14">
-        <f>SUM(F19:F108)</f>
-        <v>98.189999999999813</v>
-      </c>
-      <c r="G110" s="14">
-        <f>SUM(G19:G108)</f>
-        <v>133.39000000000007</v>
-      </c>
-      <c r="H110" s="14">
-        <f>SUM(H19:H108)</f>
-        <v>10.29</v>
-      </c>
-      <c r="I110" s="14">
-        <f>SUM(I19:I108)</f>
-        <v>3.9699999999999998</v>
-      </c>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A111" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="15">
-        <f>AVERAGE(B19:B108)</f>
-        <v>7.1404444444444479</v>
-      </c>
-      <c r="C111" s="15">
-        <f>AVERAGE(C19:C108)</f>
-        <v>1.9039999999999977</v>
-      </c>
-      <c r="D111" s="15">
-        <f>AVERAGE(D19:D108)</f>
-        <v>15.833333333333334</v>
-      </c>
-      <c r="E111" s="15">
-        <f>AVERAGE(E19:E108)</f>
-        <v>11.144444444444444</v>
-      </c>
-      <c r="F111" s="15">
-        <f>AVERAGE(F19:F108)</f>
-        <v>1.090999999999998</v>
-      </c>
-      <c r="G111" s="15">
-        <f>AVERAGE(G19:G108)</f>
-        <v>1.4821111111111118</v>
-      </c>
-      <c r="H111" s="15">
-        <f>AVERAGE(H19:H108)</f>
-        <v>0.11433333333333333</v>
-      </c>
-      <c r="I111" s="15">
-        <f>AVERAGE(I19:I108)</f>
-        <v>4.4111111111111108E-2</v>
-      </c>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A112" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B112" s="14">
-        <f>MIN(B19:B108)</f>
-        <v>4</v>
-      </c>
-      <c r="C112" s="14">
-        <f>MIN(C19:C108)</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="14">
-        <f>MIN(D19:D108)</f>
-        <v>1</v>
-      </c>
-      <c r="E112" s="14">
-        <f>MIN(E19:E108)</f>
-        <v>3</v>
-      </c>
-      <c r="F112" s="14">
-        <f>MIN(F19:F108)</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G112" s="14">
-        <f>MIN(G19:G108)</f>
-        <v>0.33</v>
-      </c>
-      <c r="H112" s="14">
-        <f>MIN(H19:H108)</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="14">
-        <f>MIN(I19:I108)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="15">
-        <f>MAX(B19:B108)</f>
-        <v>13</v>
-      </c>
-      <c r="C113" s="15">
-        <f>MAX(C19:C108)</f>
-        <v>3.57</v>
-      </c>
-      <c r="D113" s="15">
-        <f>MAX(D19:D108)</f>
-        <v>27</v>
-      </c>
-      <c r="E113" s="15">
-        <f>MAX(E19:E108)</f>
+      <c r="F98" s="15">
+        <f>MAX(F19:F93)</f>
+        <v>2</v>
+      </c>
+      <c r="G98" s="15">
+        <f>MAX(G19:G93)</f>
+        <v>2.21</v>
+      </c>
+      <c r="H98" s="15">
+        <f>MAX(H19:H93)</f>
+        <v>3.08</v>
+      </c>
+      <c r="I98" s="15">
+        <f>MAX(I19:I93)</f>
+        <v>1.53</v>
+      </c>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="14">
+        <f t="shared" ref="B99:I99" si="4">_xlfn.STDEV.S(B19:B93)</f>
+        <v>2.2158610308654598</v>
+      </c>
+      <c r="C99" s="14">
+        <f t="shared" si="4"/>
+        <v>1.7251395243221308</v>
+      </c>
+      <c r="D99" s="14">
+        <f t="shared" si="4"/>
+        <v>7.5676409262853612</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" si="4"/>
+        <v>12.363022459104583</v>
+      </c>
+      <c r="F99" s="14">
+        <f t="shared" si="4"/>
+        <v>0.52875573815385757</v>
+      </c>
+      <c r="G99" s="14">
+        <f t="shared" si="4"/>
+        <v>0.3692362216622137</v>
+      </c>
+      <c r="H99" s="14">
+        <f t="shared" si="4"/>
+        <v>0.55347443115824779</v>
+      </c>
+      <c r="I99" s="14">
+        <f t="shared" si="4"/>
+        <v>0.22514723911094109</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F113" s="15">
-        <f>MAX(F19:F108)</f>
-        <v>2</v>
-      </c>
-      <c r="G113" s="15">
-        <f>MAX(G19:G108)</f>
-        <v>2.21</v>
-      </c>
-      <c r="H113" s="15">
-        <f>MAX(H19:H108)</f>
-        <v>3.08</v>
-      </c>
-      <c r="I113" s="15">
-        <f>MAX(I19:I108)</f>
-        <v>1.53</v>
-      </c>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="14">
-        <f>_xlfn.STDEV.S(B19:B108)</f>
-        <v>3.0046783413671845</v>
-      </c>
-      <c r="C114" s="14">
-        <f>_xlfn.STDEV.S(C19:C108)</f>
-        <v>1.7910067472065347</v>
-      </c>
-      <c r="D114" s="14">
-        <f>_xlfn.STDEV.S(D19:D108)</f>
-        <v>8.6819585632725769</v>
-      </c>
-      <c r="E114" s="14">
-        <f>_xlfn.STDEV.S(E19:E108)</f>
-        <v>11.345999751544481</v>
-      </c>
-      <c r="F114" s="14">
-        <f>_xlfn.STDEV.S(F19:F108)</f>
-        <v>0.61588348890851008</v>
-      </c>
-      <c r="G114" s="14">
-        <f>_xlfn.STDEV.S(G19:G108)</f>
-        <v>0.371992794555217</v>
-      </c>
-      <c r="H114" s="14">
-        <f>_xlfn.STDEV.S(H19:H108)</f>
-        <v>0.50729520692225361</v>
-      </c>
-      <c r="I114" s="14">
-        <f>_xlfn.STDEV.S(I19:I108)</f>
-        <v>0.20625551102991707</v>
-      </c>
-      <c r="J114" s="10"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B115" s="15">
-        <f t="shared" ref="B115:I115" si="4">_xlfn.VAR.S(B19:B108)</f>
-        <v>9.0280919350810542</v>
-      </c>
-      <c r="C115" s="15">
-        <f t="shared" si="4"/>
-        <v>3.2077051685393321</v>
-      </c>
-      <c r="D115" s="15">
-        <f t="shared" si="4"/>
-        <v>75.376404494382029</v>
-      </c>
-      <c r="E115" s="15">
-        <f t="shared" si="4"/>
-        <v>128.73171036204744</v>
-      </c>
-      <c r="F115" s="15">
-        <f t="shared" si="4"/>
-        <v>0.37931247191011885</v>
-      </c>
-      <c r="G115" s="15">
-        <f t="shared" si="4"/>
-        <v>0.13837863920099988</v>
-      </c>
-      <c r="H115" s="15">
-        <f t="shared" si="4"/>
-        <v>0.25734842696629212</v>
-      </c>
-      <c r="I115" s="15">
-        <f t="shared" si="4"/>
-        <v>4.2541335830212239E-2</v>
-      </c>
-      <c r="J115" s="10"/>
+      <c r="B100" s="15">
+        <f>_xlfn.VAR.S(B19:B93)</f>
+        <v>4.910040108108138</v>
+      </c>
+      <c r="C100" s="15">
+        <f>_xlfn.VAR.S(C19:C93)</f>
+        <v>2.9761063783783879</v>
+      </c>
+      <c r="D100" s="15">
+        <f>_xlfn.VAR.S(D19:D93)</f>
+        <v>57.269189189189163</v>
+      </c>
+      <c r="E100" s="15">
+        <f>_xlfn.VAR.S(E19:E93)</f>
+        <v>152.8443243243243</v>
+      </c>
+      <c r="F100" s="15">
+        <f>_xlfn.VAR.S(F19:F93)</f>
+        <v>0.27958263063063082</v>
+      </c>
+      <c r="G100" s="15">
+        <f>_xlfn.VAR.S(G19:G93)</f>
+        <v>0.1363353873873874</v>
+      </c>
+      <c r="H100" s="15">
+        <f>_xlfn.VAR.S(H19:H93)</f>
+        <v>0.30633394594594593</v>
+      </c>
+      <c r="I100" s="15">
+        <f>_xlfn.VAR.S(I19:I93)</f>
+        <v>5.0691279279279286E-2</v>
+      </c>
+      <c r="J100" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A18:J145">
